--- a/output/Table 1.xlsx
+++ b/output/Table 1.xlsx
@@ -1,45 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Downloads/Canada-Burden-of-Disease-main/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11BB3D6-48C8-9940-A7EB-9E9E37F70023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Part1" sheetId="1" r:id="rId1"/>
-    <sheet name="Part2" sheetId="2" r:id="rId2"/>
-    <sheet name="Part3" sheetId="3" r:id="rId3"/>
-    <sheet name="Part4" sheetId="4" r:id="rId4"/>
-    <sheet name="Part5" sheetId="5" r:id="rId5"/>
+    <sheet name="Part1" sheetId="1" r:id="rId2"/>
+    <sheet name="Part2" sheetId="2" r:id="rId4"/>
+    <sheet name="Part3" sheetId="3" r:id="rId5"/>
+    <sheet name="Part4" sheetId="4" r:id="rId6"/>
+    <sheet name="Part5" sheetId="5" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Part1!$A$1:$G$37</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="24">
   <si>
     <t>Measure</t>
   </si>
@@ -111,24 +89,16 @@
   </si>
   <si>
     <t>All causes</t>
-  </si>
-  <si>
-    <t>=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,334 +121,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -499,7 +158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -509,20 +168,20 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>1990</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E2" s="0">
         <v>26638</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>23670.19921875</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>29975.19921875</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -532,20 +191,20 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>2019</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E3" s="0">
         <v>27335.900390625</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>23882.5</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>31173.30078125</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -555,20 +214,20 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>1990</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E4" s="0">
         <v>24247.5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>21542.599609375</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>27249.900390625</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -578,20 +237,20 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>2019</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E5" s="0">
         <v>19683.69921875</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>16877.099609375</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>22813.80078125</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -601,20 +260,20 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>1990</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E6" s="0">
         <v>28559.69921875</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>26025.599609375</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>31454.900390625</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -624,20 +283,20 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
-        <v>2019</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E7" s="0">
         <v>28048.30078125</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>24952.099609375</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>31578.30078125</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -647,20 +306,20 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8">
-        <v>1990</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E8" s="0">
         <v>27614.69921875</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>25218</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>30358.400390625</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -670,20 +329,20 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9">
-        <v>2019</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E9" s="0">
         <v>20739.5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>18213.69921875</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>23559.69921875</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -693,20 +352,20 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10">
-        <v>1990</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E10" s="0">
         <v>24766.400390625</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>21444.400390625</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>28610.400390625</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -716,20 +375,20 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>2019</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E11" s="0">
         <v>26645.900390625</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>22855.80078125</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>30872</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -739,20 +398,20 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12">
-        <v>1990</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E12" s="0">
         <v>21468.900390625</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>18492.69921875</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>24880.19921875</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -762,20 +421,20 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13">
-        <v>2019</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E13" s="0">
         <v>18765.30078125</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>15692</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>22287.19921875</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -785,20 +444,20 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
-        <v>1990</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E14" s="0">
         <v>15328.5</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>15259</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>15405.099609375</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -808,20 +467,20 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15">
-        <v>2019</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E15" s="0">
         <v>13773.400390625</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>13562.099609375</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>13999.400390625</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -831,20 +490,20 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16">
-        <v>1990</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E16" s="0">
         <v>13932</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>13867.400390625</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>14001.400390625</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -854,20 +513,20 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17">
-        <v>2019</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E17" s="0">
         <v>8963.599609375</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>8772.7998046875</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0">
         <v>9171.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -877,20 +536,20 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18">
-        <v>1990</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E18" s="0">
         <v>18597.400390625</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>18493.400390625</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>18704.19921875</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -900,20 +559,20 @@
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19">
-        <v>2019</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E19" s="0">
         <v>15825.400390625</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>15570.5</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0">
         <v>16099.2998046875</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -923,20 +582,20 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20">
-        <v>1990</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E20" s="0">
         <v>18194.19921875</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>18091.69921875</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0">
         <v>18298.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -946,20 +605,20 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21">
-        <v>2019</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E21" s="0">
         <v>10956.5</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>10719.2998046875</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>11216.099609375</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -969,20 +628,20 @@
       <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D22">
-        <v>1990</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E22" s="0">
         <v>12144.900390625</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>12071.099609375</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>12222.7998046875</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -992,20 +651,20 @@
       <c r="C23" t="s">
         <v>10</v>
       </c>
-      <c r="D23">
-        <v>2019</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E23" s="0">
         <v>11785.7001953125</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>11616.5</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0">
         <v>11965.2001953125</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1015,20 +674,20 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D24">
-        <v>1990</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E24" s="0">
         <v>10256.400390625</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>10195.5</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0">
         <v>10320.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1038,20 +697,20 @@
       <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="D25">
-        <v>2019</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E25" s="0">
         <v>7120.7001953125</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>6976.10009765625</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0">
         <v>7277.39990234375</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1061,20 +720,20 @@
       <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26">
-        <v>1990</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E26" s="0">
         <v>11309.5</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>8360.099609375</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>14702.2998046875</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1084,20 +743,20 @@
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27">
-        <v>2019</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E27" s="0">
         <v>13562.5</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>10140.5</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0">
         <v>17380.19921875</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1107,20 +766,20 @@
       <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="D28">
-        <v>1990</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E28" s="0">
         <v>10315.5</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>7631.39990234375</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="0">
         <v>13379.2001953125</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1130,20 +789,20 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29">
-        <v>2019</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E29" s="0">
         <v>10720.099609375</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>7955.2001953125</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="0">
         <v>13795.900390625</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1153,20 +812,20 @@
       <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="D30">
-        <v>1990</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E30" s="0">
         <v>9962.2998046875</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>7430</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="0">
         <v>12867.2001953125</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1176,20 +835,20 @@
       <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D31">
-        <v>2019</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E31" s="0">
         <v>12222.900390625</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>9140.7001953125</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="0">
         <v>15637.599609375</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1199,20 +858,20 @@
       <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D32">
-        <v>1990</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E32" s="0">
         <v>9420.5</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0">
         <v>7025.2998046875</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="0">
         <v>12168.400390625</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1222,20 +881,20 @@
       <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D33">
-        <v>2019</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E33" s="0">
         <v>9783</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>7259.7998046875</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="0">
         <v>12543.2998046875</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1245,20 +904,20 @@
       <c r="C34" t="s">
         <v>10</v>
       </c>
-      <c r="D34">
-        <v>1990</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E34" s="0">
         <v>12621.5</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0">
         <v>9294.5</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="0">
         <v>16503.900390625</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1268,20 +927,20 @@
       <c r="C35" t="s">
         <v>10</v>
       </c>
-      <c r="D35">
-        <v>2019</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E35" s="0">
         <v>14860.2001953125</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0">
         <v>11084.7001953125</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="0">
         <v>19091.5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -1291,20 +950,20 @@
       <c r="C36" t="s">
         <v>10</v>
       </c>
-      <c r="D36">
-        <v>1990</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E36" s="0">
         <v>11212.599609375</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0">
         <v>8225.7998046875</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="0">
         <v>14644.2001953125</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1314,33 +973,29 @@
       <c r="C37" t="s">
         <v>10</v>
       </c>
-      <c r="D37">
-        <v>2019</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E37" s="0">
         <v>11644.5</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0">
         <v>8632.599609375</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="0">
         <v>15179.5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1366,7 +1021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1376,23 +1031,23 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>1990</v>
-      </c>
-      <c r="E2">
-        <v>2019</v>
-      </c>
-      <c r="F2">
-        <v>2.9999999329447746E-2</v>
-      </c>
-      <c r="G2">
+      <c r="D2" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E2" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.029999999329447746</v>
+      </c>
+      <c r="G2" s="0">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1402,23 +1057,23 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>1990</v>
-      </c>
-      <c r="E3">
-        <v>2019</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E3" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F3" s="0">
         <v>-0.18999999761581421</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>-0.20000000298023224</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>-0.20000000298023224</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1428,23 +1083,23 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>1990</v>
-      </c>
-      <c r="E4">
-        <v>2019</v>
-      </c>
-      <c r="F4">
-        <v>-1.9999999552965164E-2</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E4" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F4" s="0">
+        <v>-0.019999999552965164</v>
+      </c>
+      <c r="G4" s="0">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1454,23 +1109,23 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>1990</v>
-      </c>
-      <c r="E5">
-        <v>2019</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E5" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F5" s="0">
         <v>-0.25</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>-0.30000001192092896</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>-0.20000000298023224</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1480,23 +1135,23 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>1990</v>
-      </c>
-      <c r="E6">
-        <v>2019</v>
-      </c>
-      <c r="F6">
-        <v>7.9999998211860657E-2</v>
-      </c>
-      <c r="G6">
+      <c r="D6" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E6" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.079999998211860657</v>
+      </c>
+      <c r="G6" s="0">
         <v>0.10000000149011612</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>0.10000000149011612</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1506,23 +1161,23 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>1990</v>
-      </c>
-      <c r="E7">
-        <v>2019</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E7" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F7" s="0">
         <v>-0.12999999523162842</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>-0.20000000298023224</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>-0.10000000149011612</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1532,23 +1187,23 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
-        <v>1990</v>
-      </c>
-      <c r="E8">
-        <v>2019</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E8" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F8" s="0">
         <v>-0.10000000149011612</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>-0.10000000149011612</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>-0.10000000149011612</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1558,23 +1213,23 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>1990</v>
-      </c>
-      <c r="E9">
-        <v>2019</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E9" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F9" s="0">
         <v>-0.36000001430511475</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>-0.40000000596046448</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>-0.30000001192092896</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1584,23 +1239,23 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10">
-        <v>1990</v>
-      </c>
-      <c r="E10">
-        <v>2019</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E10" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F10" s="0">
         <v>-0.15000000596046448</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>-0.20000000298023224</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>-0.10000000149011612</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1610,23 +1265,23 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11">
-        <v>1990</v>
-      </c>
-      <c r="E11">
-        <v>2019</v>
-      </c>
-      <c r="F11">
+      <c r="D11" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E11" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F11" s="0">
         <v>-0.40000000596046448</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>-0.40000000596046448</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>-0.40000000596046448</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1636,23 +1291,23 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12">
-        <v>1990</v>
-      </c>
-      <c r="E12">
-        <v>2019</v>
-      </c>
-      <c r="F12">
-        <v>-2.9999999329447746E-2</v>
-      </c>
-      <c r="G12">
+      <c r="D12" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E12" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.029999999329447746</v>
+      </c>
+      <c r="G12" s="0">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1662,23 +1317,23 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13">
-        <v>1990</v>
-      </c>
-      <c r="E13">
-        <v>2019</v>
-      </c>
-      <c r="F13">
+      <c r="D13" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E13" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F13" s="0">
         <v>-0.31000000238418579</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>-0.30000001192092896</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>-0.30000001192092896</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1688,23 +1343,23 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
-        <v>1990</v>
-      </c>
-      <c r="E14">
-        <v>2019</v>
-      </c>
-      <c r="F14">
+      <c r="D14" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E14" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F14" s="0">
         <v>0.20000000298023224</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>0.20000000298023224</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>0.20000000298023224</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1714,23 +1369,23 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15">
-        <v>1990</v>
-      </c>
-      <c r="E15">
-        <v>2019</v>
-      </c>
-      <c r="F15">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="G15">
+      <c r="D15" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E15" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.039999999105930328</v>
+      </c>
+      <c r="G15" s="0">
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>0.10000000149011612</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1740,23 +1395,23 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16">
-        <v>1990</v>
-      </c>
-      <c r="E16">
-        <v>2019</v>
-      </c>
-      <c r="F16">
+      <c r="D16" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E16" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F16" s="0">
         <v>0.23000000417232513</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>0.20000000298023224</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>0.30000001192092896</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1766,23 +1421,23 @@
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17">
-        <v>1990</v>
-      </c>
-      <c r="E17">
-        <v>2019</v>
-      </c>
-      <c r="F17">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="G17">
+      <c r="D17" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E17" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0.039999999105930328</v>
+      </c>
+      <c r="G17" s="0">
         <v>0</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>0.10000000149011612</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1792,23 +1447,23 @@
       <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="D18">
-        <v>1990</v>
-      </c>
-      <c r="E18">
-        <v>2019</v>
-      </c>
-      <c r="F18">
+      <c r="D18" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E18" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F18" s="0">
         <v>0.18000000715255737</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>0.10000000149011612</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>0.20000000298023224</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1818,36 +1473,32 @@
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19">
-        <v>1990</v>
-      </c>
-      <c r="E19">
-        <v>2019</v>
-      </c>
-      <c r="F19">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="G19">
+      <c r="D19" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E19" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0.039999999105930328</v>
+      </c>
+      <c r="G19" s="0">
         <v>0</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>0.10000000149011612</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1870,7 +1521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1880,20 +1531,20 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>1990</v>
-      </c>
-      <c r="E2">
-        <v>77.430000305175781</v>
-      </c>
-      <c r="F2">
-        <v>77.400001525878906</v>
-      </c>
-      <c r="G2">
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E2" s="0">
+        <v>82.180000305175781</v>
+      </c>
+      <c r="F2" s="0">
+        <v>82</v>
+      </c>
+      <c r="G2" s="0">
+        <v>82.300003051757812</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1903,20 +1554,20 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>2019</v>
-      </c>
-      <c r="E3">
-        <v>82.180000305175781</v>
-      </c>
-      <c r="F3">
-        <v>82</v>
-      </c>
-      <c r="G3">
-        <v>82.300003051757812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E3" s="0">
+        <v>77.430000305175781</v>
+      </c>
+      <c r="F3" s="0">
+        <v>77.400001525878906</v>
+      </c>
+      <c r="G3" s="0">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1926,20 +1577,20 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>1990</v>
-      </c>
-      <c r="E4">
-        <v>74.199996948242188</v>
-      </c>
-      <c r="F4">
-        <v>74.099998474121094</v>
-      </c>
-      <c r="G4">
-        <v>74.300003051757812</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D4" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E4" s="0">
+        <v>80.050003051757812</v>
+      </c>
+      <c r="F4" s="0">
+        <v>79.900001525878906</v>
+      </c>
+      <c r="G4" s="0">
+        <v>80.199996948242188</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1949,20 +1600,20 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>2019</v>
-      </c>
-      <c r="E5">
-        <v>80.050003051757812</v>
-      </c>
-      <c r="F5">
-        <v>79.900001525878906</v>
-      </c>
-      <c r="G5">
-        <v>80.199996948242188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D5" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E5" s="0">
+        <v>74.199996948242188</v>
+      </c>
+      <c r="F5" s="0">
+        <v>74.099998474121094</v>
+      </c>
+      <c r="G5" s="0">
+        <v>74.300003051757812</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1972,20 +1623,20 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>2019</v>
-      </c>
-      <c r="E6">
-        <v>84.269996643066406</v>
-      </c>
-      <c r="F6">
-        <v>84.099998474121094</v>
-      </c>
-      <c r="G6">
-        <v>84.400001525878906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D6" s="0">
+        <v>1990</v>
+      </c>
+      <c r="E6" s="0">
+        <v>80.629997253417969</v>
+      </c>
+      <c r="F6" s="0">
+        <v>80.599998474121094</v>
+      </c>
+      <c r="G6" s="0">
+        <v>80.699996948242188</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1995,33 +1646,29 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>1990</v>
-      </c>
-      <c r="E7">
-        <v>80.629997253417969</v>
-      </c>
-      <c r="F7">
-        <v>80.599998474121094</v>
-      </c>
-      <c r="G7">
-        <v>80.699996948242188</v>
+      <c r="D7" s="0">
+        <v>2019</v>
+      </c>
+      <c r="E7" s="0">
+        <v>84.269996643066406</v>
+      </c>
+      <c r="F7" s="0">
+        <v>84.099998474121094</v>
+      </c>
+      <c r="G7" s="0">
+        <v>84.400001525878906</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +1688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2051,17 +1698,17 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>6.130000114440918</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>6.1999998092651367</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>5.9000000953674316</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2071,17 +1718,17 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>4.5100002288818359</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>4.5999999046325684</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>4.3000001907348633</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2091,30 +1738,26 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>7.880000114440918</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>7.9000000953674316</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>7.8000001907348633</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2140,7 +1783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2153,20 +1796,20 @@
       <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>2010</v>
-      </c>
-      <c r="F2">
-        <v>155.67999267578125</v>
-      </c>
-      <c r="G2">
-        <v>136.39999389648438</v>
-      </c>
-      <c r="H2">
-        <v>177.10000610351562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2" s="0">
+        <v>2000</v>
+      </c>
+      <c r="F2" s="0">
+        <v>162.94999694824219</v>
+      </c>
+      <c r="G2" s="0">
+        <v>143.10000610351562</v>
+      </c>
+      <c r="H2" s="0">
+        <v>185.10000610351562</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -2179,20 +1822,20 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>2000</v>
-      </c>
-      <c r="F3">
-        <v>162.94999694824219</v>
-      </c>
-      <c r="G3">
-        <v>143.10000610351562</v>
-      </c>
-      <c r="H3">
-        <v>185.10000610351562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E3" s="0">
+        <v>2010</v>
+      </c>
+      <c r="F3" s="0">
+        <v>155.67999267578125</v>
+      </c>
+      <c r="G3" s="0">
+        <v>136.39999389648438</v>
+      </c>
+      <c r="H3" s="0">
+        <v>177.10000610351562</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2205,20 +1848,20 @@
       <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4">
-        <v>2019</v>
-      </c>
-      <c r="F4">
-        <v>127.75</v>
-      </c>
-      <c r="G4">
-        <v>116.09999847412109</v>
-      </c>
-      <c r="H4">
-        <v>140.80000305175781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E4" s="0">
+        <v>1990</v>
+      </c>
+      <c r="F4" s="0">
+        <v>254.66999816894531</v>
+      </c>
+      <c r="G4" s="0">
+        <v>224.80000305175781</v>
+      </c>
+      <c r="H4" s="0">
+        <v>285.89999389648438</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2231,20 +1874,20 @@
       <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E5">
-        <v>1990</v>
-      </c>
-      <c r="F5">
-        <v>254.66999816894531</v>
-      </c>
-      <c r="G5">
-        <v>224.80000305175781</v>
-      </c>
-      <c r="H5">
-        <v>285.89999389648438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E5" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F5" s="0">
+        <v>127.75</v>
+      </c>
+      <c r="G5" s="0">
+        <v>116.09999847412109</v>
+      </c>
+      <c r="H5" s="0">
+        <v>140.80000305175781</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2257,20 +1900,20 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
-        <v>2019</v>
-      </c>
-      <c r="F6">
-        <v>138.63999938964844</v>
-      </c>
-      <c r="G6">
-        <v>123.90000152587891</v>
-      </c>
-      <c r="H6">
-        <v>155.19999694824219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E6" s="0">
+        <v>1990</v>
+      </c>
+      <c r="F6" s="0">
+        <v>286.58999633789062</v>
+      </c>
+      <c r="G6" s="0">
+        <v>252.89999389648438</v>
+      </c>
+      <c r="H6" s="0">
+        <v>320.70001220703125</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2283,20 +1926,20 @@
       <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7">
-        <v>1990</v>
-      </c>
-      <c r="F7">
-        <v>286.58999633789062</v>
-      </c>
-      <c r="G7">
-        <v>252.89999389648438</v>
-      </c>
-      <c r="H7">
-        <v>320.70001220703125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E7" s="0">
+        <v>2010</v>
+      </c>
+      <c r="F7" s="0">
+        <v>170.30999755859375</v>
+      </c>
+      <c r="G7" s="0">
+        <v>149.5</v>
+      </c>
+      <c r="H7" s="0">
+        <v>193.39999389648438</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2309,20 +1952,20 @@
       <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E8">
-        <v>2000</v>
-      </c>
-      <c r="F8">
-        <v>179.6300048828125</v>
-      </c>
-      <c r="G8">
-        <v>156.89999389648438</v>
-      </c>
-      <c r="H8">
-        <v>203.69999694824219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E8" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F8" s="0">
+        <v>138.63999938964844</v>
+      </c>
+      <c r="G8" s="0">
+        <v>123.90000152587891</v>
+      </c>
+      <c r="H8" s="0">
+        <v>155.19999694824219</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2335,20 +1978,20 @@
       <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>2010</v>
-      </c>
-      <c r="F9">
-        <v>170.30999755859375</v>
-      </c>
-      <c r="G9">
-        <v>149.5</v>
-      </c>
-      <c r="H9">
-        <v>193.39999389648438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E9" s="0">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="0">
+        <v>179.6300048828125</v>
+      </c>
+      <c r="G9" s="0">
+        <v>156.89999389648438</v>
+      </c>
+      <c r="H9" s="0">
+        <v>203.69999694824219</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2361,20 +2004,20 @@
       <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E10">
-        <v>1990</v>
-      </c>
-      <c r="F10">
-        <v>221.13999938964844</v>
-      </c>
-      <c r="G10">
-        <v>193.10000610351562</v>
-      </c>
-      <c r="H10">
-        <v>250.80000305175781</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E10" s="0">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="0">
+        <v>145.42999267578125</v>
+      </c>
+      <c r="G10" s="0">
+        <v>125.40000152587891</v>
+      </c>
+      <c r="H10" s="0">
+        <v>166.80000305175781</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2387,20 +2030,20 @@
       <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>2010</v>
-      </c>
-      <c r="F11">
-        <v>140.30999755859375</v>
-      </c>
-      <c r="G11">
-        <v>118.80000305175781</v>
-      </c>
-      <c r="H11">
-        <v>163.69999694824219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E11" s="0">
+        <v>1990</v>
+      </c>
+      <c r="F11" s="0">
+        <v>221.13999938964844</v>
+      </c>
+      <c r="G11" s="0">
+        <v>193.10000610351562</v>
+      </c>
+      <c r="H11" s="0">
+        <v>250.80000305175781</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2413,20 +2056,20 @@
       <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E12">
-        <v>2000</v>
-      </c>
-      <c r="F12">
-        <v>145.42999267578125</v>
-      </c>
-      <c r="G12">
-        <v>125.40000152587891</v>
-      </c>
-      <c r="H12">
-        <v>166.80000305175781</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="0">
+        <v>2019</v>
+      </c>
+      <c r="F12" s="0">
+        <v>116.33999633789062</v>
+      </c>
+      <c r="G12" s="0">
+        <v>107.80000305175781</v>
+      </c>
+      <c r="H12" s="0">
+        <v>125.69999694824219</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2439,20 +2082,19 @@
       <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>2019</v>
-      </c>
-      <c r="F13">
-        <v>116.33999633789062</v>
-      </c>
-      <c r="G13">
-        <v>107.80000305175781</v>
-      </c>
-      <c r="H13">
-        <v>125.69999694824219</v>
+      <c r="E13" s="0">
+        <v>2010</v>
+      </c>
+      <c r="F13" s="0">
+        <v>140.30999755859375</v>
+      </c>
+      <c r="G13" s="0">
+        <v>118.80000305175781</v>
+      </c>
+      <c r="H13" s="0">
+        <v>163.69999694824219</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/Table 1.xlsx
+++ b/output/Table 1.xlsx
@@ -1797,16 +1797,16 @@
         <v>23</v>
       </c>
       <c r="E2" s="0">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F2" s="0">
-        <v>162.94999694824219</v>
+        <v>155.67999267578125</v>
       </c>
       <c r="G2" s="0">
-        <v>143.10000610351562</v>
+        <v>136.39999389648438</v>
       </c>
       <c r="H2" s="0">
-        <v>185.10000610351562</v>
+        <v>177.10000610351562</v>
       </c>
     </row>
     <row r="3">
@@ -1823,16 +1823,16 @@
         <v>23</v>
       </c>
       <c r="E3" s="0">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F3" s="0">
-        <v>155.67999267578125</v>
+        <v>127.75</v>
       </c>
       <c r="G3" s="0">
-        <v>136.39999389648438</v>
+        <v>116.09999847412109</v>
       </c>
       <c r="H3" s="0">
-        <v>177.10000610351562</v>
+        <v>140.80000305175781</v>
       </c>
     </row>
     <row r="4">
@@ -1875,16 +1875,16 @@
         <v>23</v>
       </c>
       <c r="E5" s="0">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="F5" s="0">
-        <v>127.75</v>
+        <v>162.94999694824219</v>
       </c>
       <c r="G5" s="0">
-        <v>116.09999847412109</v>
+        <v>143.10000610351562</v>
       </c>
       <c r="H5" s="0">
-        <v>140.80000305175781</v>
+        <v>185.10000610351562</v>
       </c>
     </row>
     <row r="6">
@@ -1927,16 +1927,16 @@
         <v>23</v>
       </c>
       <c r="E7" s="0">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F7" s="0">
-        <v>170.30999755859375</v>
+        <v>138.63999938964844</v>
       </c>
       <c r="G7" s="0">
-        <v>149.5</v>
+        <v>123.90000152587891</v>
       </c>
       <c r="H7" s="0">
-        <v>193.39999389648438</v>
+        <v>155.19999694824219</v>
       </c>
     </row>
     <row r="8">
@@ -1953,16 +1953,16 @@
         <v>23</v>
       </c>
       <c r="E8" s="0">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="F8" s="0">
-        <v>138.63999938964844</v>
+        <v>179.6300048828125</v>
       </c>
       <c r="G8" s="0">
-        <v>123.90000152587891</v>
+        <v>156.89999389648438</v>
       </c>
       <c r="H8" s="0">
-        <v>155.19999694824219</v>
+        <v>203.69999694824219</v>
       </c>
     </row>
     <row r="9">
@@ -1979,16 +1979,16 @@
         <v>23</v>
       </c>
       <c r="E9" s="0">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F9" s="0">
-        <v>179.6300048828125</v>
+        <v>170.30999755859375</v>
       </c>
       <c r="G9" s="0">
-        <v>156.89999389648438</v>
+        <v>149.5</v>
       </c>
       <c r="H9" s="0">
-        <v>203.69999694824219</v>
+        <v>193.39999389648438</v>
       </c>
     </row>
     <row r="10">
@@ -2005,16 +2005,16 @@
         <v>23</v>
       </c>
       <c r="E10" s="0">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="F10" s="0">
-        <v>145.42999267578125</v>
+        <v>221.13999938964844</v>
       </c>
       <c r="G10" s="0">
-        <v>125.40000152587891</v>
+        <v>193.10000610351562</v>
       </c>
       <c r="H10" s="0">
-        <v>166.80000305175781</v>
+        <v>250.80000305175781</v>
       </c>
     </row>
     <row r="11">
@@ -2031,16 +2031,16 @@
         <v>23</v>
       </c>
       <c r="E11" s="0">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="F11" s="0">
-        <v>221.13999938964844</v>
+        <v>145.42999267578125</v>
       </c>
       <c r="G11" s="0">
-        <v>193.10000610351562</v>
+        <v>125.40000152587891</v>
       </c>
       <c r="H11" s="0">
-        <v>250.80000305175781</v>
+        <v>166.80000305175781</v>
       </c>
     </row>
     <row r="12">

--- a/output/Table 1.xlsx
+++ b/output/Table 1.xlsx
@@ -1797,16 +1797,16 @@
         <v>23</v>
       </c>
       <c r="E2" s="0">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F2" s="0">
-        <v>155.67999267578125</v>
+        <v>127.75</v>
       </c>
       <c r="G2" s="0">
-        <v>136.39999389648438</v>
+        <v>116.09999847412109</v>
       </c>
       <c r="H2" s="0">
-        <v>177.10000610351562</v>
+        <v>140.80000305175781</v>
       </c>
     </row>
     <row r="3">
@@ -1823,16 +1823,16 @@
         <v>23</v>
       </c>
       <c r="E3" s="0">
-        <v>2019</v>
+        <v>1990</v>
       </c>
       <c r="F3" s="0">
-        <v>127.75</v>
+        <v>254.66999816894531</v>
       </c>
       <c r="G3" s="0">
-        <v>116.09999847412109</v>
+        <v>224.80000305175781</v>
       </c>
       <c r="H3" s="0">
-        <v>140.80000305175781</v>
+        <v>285.89999389648438</v>
       </c>
     </row>
     <row r="4">
@@ -1849,16 +1849,16 @@
         <v>23</v>
       </c>
       <c r="E4" s="0">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="F4" s="0">
-        <v>254.66999816894531</v>
+        <v>162.94999694824219</v>
       </c>
       <c r="G4" s="0">
-        <v>224.80000305175781</v>
+        <v>143.10000610351562</v>
       </c>
       <c r="H4" s="0">
-        <v>285.89999389648438</v>
+        <v>185.10000610351562</v>
       </c>
     </row>
     <row r="5">
@@ -1875,16 +1875,16 @@
         <v>23</v>
       </c>
       <c r="E5" s="0">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F5" s="0">
-        <v>162.94999694824219</v>
+        <v>155.67999267578125</v>
       </c>
       <c r="G5" s="0">
-        <v>143.10000610351562</v>
+        <v>136.39999389648438</v>
       </c>
       <c r="H5" s="0">
-        <v>185.10000610351562</v>
+        <v>177.10000610351562</v>
       </c>
     </row>
     <row r="6">
@@ -1901,16 +1901,16 @@
         <v>23</v>
       </c>
       <c r="E6" s="0">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="F6" s="0">
-        <v>286.58999633789062</v>
+        <v>170.30999755859375</v>
       </c>
       <c r="G6" s="0">
-        <v>252.89999389648438</v>
+        <v>149.5</v>
       </c>
       <c r="H6" s="0">
-        <v>320.70001220703125</v>
+        <v>193.39999389648438</v>
       </c>
     </row>
     <row r="7">
@@ -1927,16 +1927,16 @@
         <v>23</v>
       </c>
       <c r="E7" s="0">
-        <v>2019</v>
+        <v>1990</v>
       </c>
       <c r="F7" s="0">
-        <v>138.63999938964844</v>
+        <v>286.58999633789062</v>
       </c>
       <c r="G7" s="0">
-        <v>123.90000152587891</v>
+        <v>252.89999389648438</v>
       </c>
       <c r="H7" s="0">
-        <v>155.19999694824219</v>
+        <v>320.70001220703125</v>
       </c>
     </row>
     <row r="8">
@@ -1979,16 +1979,16 @@
         <v>23</v>
       </c>
       <c r="E9" s="0">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="F9" s="0">
-        <v>170.30999755859375</v>
+        <v>138.63999938964844</v>
       </c>
       <c r="G9" s="0">
-        <v>149.5</v>
+        <v>123.90000152587891</v>
       </c>
       <c r="H9" s="0">
-        <v>193.39999389648438</v>
+        <v>155.19999694824219</v>
       </c>
     </row>
     <row r="10">
@@ -2005,16 +2005,16 @@
         <v>23</v>
       </c>
       <c r="E10" s="0">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="F10" s="0">
-        <v>221.13999938964844</v>
+        <v>116.33999633789062</v>
       </c>
       <c r="G10" s="0">
-        <v>193.10000610351562</v>
+        <v>107.80000305175781</v>
       </c>
       <c r="H10" s="0">
-        <v>250.80000305175781</v>
+        <v>125.69999694824219</v>
       </c>
     </row>
     <row r="11">
@@ -2031,16 +2031,16 @@
         <v>23</v>
       </c>
       <c r="E11" s="0">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F11" s="0">
-        <v>145.42999267578125</v>
+        <v>140.30999755859375</v>
       </c>
       <c r="G11" s="0">
-        <v>125.40000152587891</v>
+        <v>118.80000305175781</v>
       </c>
       <c r="H11" s="0">
-        <v>166.80000305175781</v>
+        <v>163.69999694824219</v>
       </c>
     </row>
     <row r="12">
@@ -2057,16 +2057,16 @@
         <v>23</v>
       </c>
       <c r="E12" s="0">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="0">
-        <v>116.33999633789062</v>
+        <v>145.42999267578125</v>
       </c>
       <c r="G12" s="0">
-        <v>107.80000305175781</v>
+        <v>125.40000152587891</v>
       </c>
       <c r="H12" s="0">
-        <v>125.69999694824219</v>
+        <v>166.80000305175781</v>
       </c>
     </row>
     <row r="13">
@@ -2083,16 +2083,16 @@
         <v>23</v>
       </c>
       <c r="E13" s="0">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="F13" s="0">
-        <v>140.30999755859375</v>
+        <v>221.13999938964844</v>
       </c>
       <c r="G13" s="0">
-        <v>118.80000305175781</v>
+        <v>193.10000610351562</v>
       </c>
       <c r="H13" s="0">
-        <v>163.69999694824219</v>
+        <v>250.80000305175781</v>
       </c>
     </row>
   </sheetData>

--- a/output/Table 1.xlsx
+++ b/output/Table 1.xlsx
@@ -21,12 +21,12 @@
     <t>DALYs</t>
   </si>
   <si>
+    <t>YLLs</t>
+  </si>
+  <si>
     <t>YLDs</t>
   </si>
   <si>
-    <t>YLLs</t>
-  </si>
-  <si>
     <t>Life expectancy</t>
   </si>
   <si>
@@ -36,12 +36,12 @@
     <t>Age</t>
   </si>
   <si>
+    <t>All Ages</t>
+  </si>
+  <si>
     <t>Age-standardized</t>
   </si>
   <si>
-    <t>All Ages</t>
-  </si>
-  <si>
     <t>At birth</t>
   </si>
   <si>
@@ -54,10 +54,10 @@
     <t>Both sexes</t>
   </si>
   <si>
+    <t>Males</t>
+  </si>
+  <si>
     <t>Females</t>
-  </si>
-  <si>
-    <t>Males</t>
   </si>
   <si>
     <t>1990 Value</t>
@@ -168,25 +168,25 @@
         <v>12</v>
       </c>
       <c r="D2" s="0">
-        <v>24247.5</v>
+        <v>26638</v>
       </c>
       <c r="E2" s="0">
-        <v>21542.599609375</v>
+        <v>23670.19921875</v>
       </c>
       <c r="F2" s="0">
-        <v>27249.900390625</v>
+        <v>29975.19921875</v>
       </c>
       <c r="G2" s="0">
-        <v>19683.69921875</v>
+        <v>27335.900390625</v>
       </c>
       <c r="H2" s="0">
-        <v>16877.099609375</v>
+        <v>23882.5</v>
       </c>
       <c r="I2" s="0">
-        <v>22813.80078125</v>
+        <v>31173.30078125</v>
       </c>
       <c r="J2" s="0">
-        <v>-0.18999999761581421</v>
+        <v>2.619999885559082</v>
       </c>
     </row>
     <row r="3">
@@ -200,25 +200,25 @@
         <v>13</v>
       </c>
       <c r="D3" s="0">
-        <v>21468.900390625</v>
+        <v>28559.69921875</v>
       </c>
       <c r="E3" s="0">
-        <v>18492.69921875</v>
+        <v>26025.599609375</v>
       </c>
       <c r="F3" s="0">
-        <v>24880.19921875</v>
+        <v>31454.900390625</v>
       </c>
       <c r="G3" s="0">
-        <v>18765.30078125</v>
+        <v>28048.30078125</v>
       </c>
       <c r="H3" s="0">
-        <v>15692</v>
+        <v>24952.099609375</v>
       </c>
       <c r="I3" s="0">
-        <v>22287.19921875</v>
+        <v>31578.30078125</v>
       </c>
       <c r="J3" s="0">
-        <v>-0.12999999523162842</v>
+        <v>-1.7899999618530273</v>
       </c>
     </row>
     <row r="4">
@@ -232,25 +232,25 @@
         <v>14</v>
       </c>
       <c r="D4" s="0">
-        <v>27614.69921875</v>
+        <v>24766.400390625</v>
       </c>
       <c r="E4" s="0">
-        <v>25218</v>
+        <v>21444.400390625</v>
       </c>
       <c r="F4" s="0">
-        <v>30358.400390625</v>
+        <v>28610.400390625</v>
       </c>
       <c r="G4" s="0">
-        <v>20739.5</v>
+        <v>26645.900390625</v>
       </c>
       <c r="H4" s="0">
-        <v>18213.69921875</v>
+        <v>22855.80078125</v>
       </c>
       <c r="I4" s="0">
-        <v>23559.69921875</v>
+        <v>30872</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.25</v>
+        <v>7.5900001525878906</v>
       </c>
     </row>
     <row r="5">
@@ -264,25 +264,25 @@
         <v>12</v>
       </c>
       <c r="D5" s="0">
-        <v>26638</v>
+        <v>24247.5</v>
       </c>
       <c r="E5" s="0">
-        <v>23670.19921875</v>
+        <v>21542.599609375</v>
       </c>
       <c r="F5" s="0">
-        <v>29975.19921875</v>
+        <v>27249.900390625</v>
       </c>
       <c r="G5" s="0">
-        <v>27335.900390625</v>
+        <v>19683.69921875</v>
       </c>
       <c r="H5" s="0">
-        <v>23882.5</v>
+        <v>16877.099609375</v>
       </c>
       <c r="I5" s="0">
-        <v>31173.30078125</v>
+        <v>22813.80078125</v>
       </c>
       <c r="J5" s="0">
-        <v>0.029999999329447746</v>
+        <v>-18.819999694824219</v>
       </c>
     </row>
     <row r="6">
@@ -296,25 +296,25 @@
         <v>13</v>
       </c>
       <c r="D6" s="0">
-        <v>24766.400390625</v>
+        <v>27614.69921875</v>
       </c>
       <c r="E6" s="0">
-        <v>21444.400390625</v>
+        <v>25218</v>
       </c>
       <c r="F6" s="0">
-        <v>28610.400390625</v>
+        <v>30358.400390625</v>
       </c>
       <c r="G6" s="0">
-        <v>26645.900390625</v>
+        <v>20739.5</v>
       </c>
       <c r="H6" s="0">
-        <v>22855.80078125</v>
+        <v>18213.69921875</v>
       </c>
       <c r="I6" s="0">
-        <v>30872</v>
+        <v>23559.69921875</v>
       </c>
       <c r="J6" s="0">
-        <v>0.079999998211860657</v>
+        <v>-24.899999618530273</v>
       </c>
     </row>
     <row r="7">
@@ -328,25 +328,25 @@
         <v>14</v>
       </c>
       <c r="D7" s="0">
-        <v>28559.69921875</v>
+        <v>21468.900390625</v>
       </c>
       <c r="E7" s="0">
-        <v>26025.599609375</v>
+        <v>18492.69921875</v>
       </c>
       <c r="F7" s="0">
-        <v>31454.900390625</v>
+        <v>24880.19921875</v>
       </c>
       <c r="G7" s="0">
-        <v>28048.30078125</v>
+        <v>18765.30078125</v>
       </c>
       <c r="H7" s="0">
-        <v>24952.099609375</v>
+        <v>15692</v>
       </c>
       <c r="I7" s="0">
-        <v>31578.30078125</v>
+        <v>22287.19921875</v>
       </c>
       <c r="J7" s="0">
-        <v>-0.019999999552965164</v>
+        <v>-12.590000152587891</v>
       </c>
     </row>
     <row r="8">
@@ -360,25 +360,25 @@
         <v>12</v>
       </c>
       <c r="D8" s="0">
-        <v>10315.5</v>
+        <v>15328.5</v>
       </c>
       <c r="E8" s="0">
-        <v>7631.39990234375</v>
+        <v>15259</v>
       </c>
       <c r="F8" s="0">
-        <v>13379.2001953125</v>
+        <v>15405.099609375</v>
       </c>
       <c r="G8" s="0">
-        <v>10720.099609375</v>
+        <v>13773.400390625</v>
       </c>
       <c r="H8" s="0">
-        <v>7955.2001953125</v>
+        <v>13562.099609375</v>
       </c>
       <c r="I8" s="0">
-        <v>13795.900390625</v>
+        <v>13999.400390625</v>
       </c>
       <c r="J8" s="0">
-        <v>0.039999999105930328</v>
+        <v>-10.149999618530273</v>
       </c>
     </row>
     <row r="9">
@@ -392,25 +392,25 @@
         <v>13</v>
       </c>
       <c r="D9" s="0">
-        <v>11212.599609375</v>
+        <v>18597.400390625</v>
       </c>
       <c r="E9" s="0">
-        <v>8225.7998046875</v>
+        <v>18493.400390625</v>
       </c>
       <c r="F9" s="0">
-        <v>14644.2001953125</v>
+        <v>18704.19921875</v>
       </c>
       <c r="G9" s="0">
-        <v>11644.5</v>
+        <v>15825.400390625</v>
       </c>
       <c r="H9" s="0">
-        <v>8632.599609375</v>
+        <v>15570.5</v>
       </c>
       <c r="I9" s="0">
-        <v>15179.5</v>
+        <v>16099.2998046875</v>
       </c>
       <c r="J9" s="0">
-        <v>0.039999999105930328</v>
+        <v>-14.909999847412109</v>
       </c>
     </row>
     <row r="10">
@@ -424,25 +424,25 @@
         <v>14</v>
       </c>
       <c r="D10" s="0">
-        <v>9420.5</v>
+        <v>12144.900390625</v>
       </c>
       <c r="E10" s="0">
-        <v>7025.2998046875</v>
+        <v>12071.099609375</v>
       </c>
       <c r="F10" s="0">
-        <v>12168.400390625</v>
+        <v>12222.7998046875</v>
       </c>
       <c r="G10" s="0">
-        <v>9783</v>
+        <v>11785.7001953125</v>
       </c>
       <c r="H10" s="0">
-        <v>7259.7998046875</v>
+        <v>11616.5</v>
       </c>
       <c r="I10" s="0">
-        <v>12543.2998046875</v>
+        <v>11965.2001953125</v>
       </c>
       <c r="J10" s="0">
-        <v>0.039999999105930328</v>
+        <v>-2.9600000381469727</v>
       </c>
     </row>
     <row r="11">
@@ -456,25 +456,25 @@
         <v>12</v>
       </c>
       <c r="D11" s="0">
-        <v>11309.5</v>
+        <v>13932</v>
       </c>
       <c r="E11" s="0">
-        <v>8360.099609375</v>
+        <v>13867.400390625</v>
       </c>
       <c r="F11" s="0">
-        <v>14702.2998046875</v>
+        <v>14001.400390625</v>
       </c>
       <c r="G11" s="0">
-        <v>13562.5</v>
+        <v>8963.599609375</v>
       </c>
       <c r="H11" s="0">
-        <v>10140.5</v>
+        <v>8772.7998046875</v>
       </c>
       <c r="I11" s="0">
-        <v>17380.19921875</v>
+        <v>9171.5</v>
       </c>
       <c r="J11" s="0">
-        <v>0.20000000298023224</v>
+        <v>-35.659999847412109</v>
       </c>
     </row>
     <row r="12">
@@ -488,25 +488,25 @@
         <v>13</v>
       </c>
       <c r="D12" s="0">
-        <v>12621.5</v>
+        <v>18194.19921875</v>
       </c>
       <c r="E12" s="0">
-        <v>9294.5</v>
+        <v>18091.69921875</v>
       </c>
       <c r="F12" s="0">
-        <v>16503.900390625</v>
+        <v>18298.5</v>
       </c>
       <c r="G12" s="0">
-        <v>14860.2001953125</v>
+        <v>10956.5</v>
       </c>
       <c r="H12" s="0">
-        <v>11084.7001953125</v>
+        <v>10719.2998046875</v>
       </c>
       <c r="I12" s="0">
-        <v>19091.5</v>
+        <v>11216.099609375</v>
       </c>
       <c r="J12" s="0">
-        <v>0.18000000715255737</v>
+        <v>-39.779998779296875</v>
       </c>
     </row>
     <row r="13">
@@ -520,25 +520,25 @@
         <v>14</v>
       </c>
       <c r="D13" s="0">
-        <v>9962.2998046875</v>
+        <v>10256.400390625</v>
       </c>
       <c r="E13" s="0">
-        <v>7430</v>
+        <v>10195.5</v>
       </c>
       <c r="F13" s="0">
-        <v>12867.2001953125</v>
+        <v>10320.5</v>
       </c>
       <c r="G13" s="0">
-        <v>12222.900390625</v>
+        <v>7120.7001953125</v>
       </c>
       <c r="H13" s="0">
-        <v>9140.7001953125</v>
+        <v>6976.10009765625</v>
       </c>
       <c r="I13" s="0">
-        <v>15637.599609375</v>
+        <v>7277.39990234375</v>
       </c>
       <c r="J13" s="0">
-        <v>0.23000000417232513</v>
+        <v>-30.569999694824219</v>
       </c>
     </row>
     <row r="14">
@@ -552,25 +552,25 @@
         <v>12</v>
       </c>
       <c r="D14" s="0">
-        <v>13932</v>
+        <v>11309.5</v>
       </c>
       <c r="E14" s="0">
-        <v>13867.400390625</v>
+        <v>8360.099609375</v>
       </c>
       <c r="F14" s="0">
-        <v>14001.400390625</v>
+        <v>14702.2998046875</v>
       </c>
       <c r="G14" s="0">
-        <v>8963.599609375</v>
+        <v>13562.5</v>
       </c>
       <c r="H14" s="0">
-        <v>8772.7998046875</v>
+        <v>10140.5</v>
       </c>
       <c r="I14" s="0">
-        <v>9171.5</v>
+        <v>17380.19921875</v>
       </c>
       <c r="J14" s="0">
-        <v>-0.36000001430511475</v>
+        <v>19.920000076293945</v>
       </c>
     </row>
     <row r="15">
@@ -584,25 +584,25 @@
         <v>13</v>
       </c>
       <c r="D15" s="0">
-        <v>10256.400390625</v>
+        <v>9962.2998046875</v>
       </c>
       <c r="E15" s="0">
-        <v>10195.5</v>
+        <v>7430</v>
       </c>
       <c r="F15" s="0">
-        <v>10320.5</v>
+        <v>12867.2001953125</v>
       </c>
       <c r="G15" s="0">
-        <v>7120.7001953125</v>
+        <v>12222.900390625</v>
       </c>
       <c r="H15" s="0">
-        <v>6976.10009765625</v>
+        <v>9140.7001953125</v>
       </c>
       <c r="I15" s="0">
-        <v>7277.39990234375</v>
+        <v>15637.599609375</v>
       </c>
       <c r="J15" s="0">
-        <v>-0.31000000238418579</v>
+        <v>22.690000534057617</v>
       </c>
     </row>
     <row r="16">
@@ -616,25 +616,25 @@
         <v>14</v>
       </c>
       <c r="D16" s="0">
-        <v>18194.19921875</v>
+        <v>12621.5</v>
       </c>
       <c r="E16" s="0">
-        <v>18091.69921875</v>
+        <v>9294.5</v>
       </c>
       <c r="F16" s="0">
-        <v>18298.5</v>
+        <v>16503.900390625</v>
       </c>
       <c r="G16" s="0">
-        <v>10956.5</v>
+        <v>14860.2001953125</v>
       </c>
       <c r="H16" s="0">
-        <v>10719.2998046875</v>
+        <v>11084.7001953125</v>
       </c>
       <c r="I16" s="0">
-        <v>11216.099609375</v>
+        <v>19091.5</v>
       </c>
       <c r="J16" s="0">
-        <v>-0.40000000596046448</v>
+        <v>17.739999771118164</v>
       </c>
     </row>
     <row r="17">
@@ -648,25 +648,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="0">
-        <v>15328.5</v>
+        <v>10315.5</v>
       </c>
       <c r="E17" s="0">
-        <v>15259</v>
+        <v>7631.39990234375</v>
       </c>
       <c r="F17" s="0">
-        <v>15405.099609375</v>
+        <v>13379.2001953125</v>
       </c>
       <c r="G17" s="0">
-        <v>13773.400390625</v>
+        <v>10720.099609375</v>
       </c>
       <c r="H17" s="0">
-        <v>13562.099609375</v>
+        <v>7955.2001953125</v>
       </c>
       <c r="I17" s="0">
-        <v>13999.400390625</v>
+        <v>13795.900390625</v>
       </c>
       <c r="J17" s="0">
-        <v>-0.10000000149011612</v>
+        <v>3.9200000762939453</v>
       </c>
     </row>
     <row r="18">
@@ -680,25 +680,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="0">
-        <v>12144.900390625</v>
+        <v>9420.5</v>
       </c>
       <c r="E18" s="0">
-        <v>12071.099609375</v>
+        <v>7025.2998046875</v>
       </c>
       <c r="F18" s="0">
-        <v>12222.7998046875</v>
+        <v>12168.400390625</v>
       </c>
       <c r="G18" s="0">
-        <v>11785.7001953125</v>
+        <v>9783</v>
       </c>
       <c r="H18" s="0">
-        <v>11616.5</v>
+        <v>7259.7998046875</v>
       </c>
       <c r="I18" s="0">
-        <v>11965.2001953125</v>
+        <v>12543.2998046875</v>
       </c>
       <c r="J18" s="0">
-        <v>-0.029999999329447746</v>
+        <v>3.8499999046325684</v>
       </c>
     </row>
     <row r="19">
@@ -712,25 +712,25 @@
         <v>14</v>
       </c>
       <c r="D19" s="0">
-        <v>18597.400390625</v>
+        <v>11212.599609375</v>
       </c>
       <c r="E19" s="0">
-        <v>18493.400390625</v>
+        <v>8225.7998046875</v>
       </c>
       <c r="F19" s="0">
-        <v>18704.19921875</v>
+        <v>14644.2001953125</v>
       </c>
       <c r="G19" s="0">
-        <v>15825.400390625</v>
+        <v>11644.5</v>
       </c>
       <c r="H19" s="0">
-        <v>15570.5</v>
+        <v>8632.599609375</v>
       </c>
       <c r="I19" s="0">
-        <v>16099.2998046875</v>
+        <v>15179.5</v>
       </c>
       <c r="J19" s="0">
-        <v>-0.15000000596046448</v>
+        <v>3.8499999046325684</v>
       </c>
     </row>
     <row r="20">
@@ -776,25 +776,25 @@
         <v>13</v>
       </c>
       <c r="D21" s="0">
-        <v>80.629997253417969</v>
+        <v>74.199996948242188</v>
       </c>
       <c r="E21" s="0">
-        <v>80.599998474121094</v>
+        <v>74.099998474121094</v>
       </c>
       <c r="F21" s="0">
-        <v>80.699996948242188</v>
+        <v>74.300003051757812</v>
       </c>
       <c r="G21" s="0">
-        <v>84.269996643066406</v>
+        <v>80.050003051757812</v>
       </c>
       <c r="H21" s="0">
-        <v>84.099998474121094</v>
+        <v>79.900001525878906</v>
       </c>
       <c r="I21" s="0">
-        <v>84.400001525878906</v>
+        <v>80.199996948242188</v>
       </c>
       <c r="J21" s="0">
-        <v>4.5100002288818359</v>
+        <v>7.880000114440918</v>
       </c>
     </row>
     <row r="22">
@@ -808,25 +808,25 @@
         <v>14</v>
       </c>
       <c r="D22" s="0">
-        <v>74.199996948242188</v>
+        <v>80.629997253417969</v>
       </c>
       <c r="E22" s="0">
-        <v>74.099998474121094</v>
+        <v>80.599998474121094</v>
       </c>
       <c r="F22" s="0">
-        <v>74.300003051757812</v>
+        <v>80.699996948242188</v>
       </c>
       <c r="G22" s="0">
-        <v>80.050003051757812</v>
+        <v>84.269996643066406</v>
       </c>
       <c r="H22" s="0">
-        <v>79.900001525878906</v>
+        <v>84.099998474121094</v>
       </c>
       <c r="I22" s="0">
-        <v>80.199996948242188</v>
+        <v>84.400001525878906</v>
       </c>
       <c r="J22" s="0">
-        <v>7.880000114440918</v>
+        <v>4.5100002288818359</v>
       </c>
     </row>
     <row r="23">
@@ -858,7 +858,7 @@
         <v>140.80000305175781</v>
       </c>
       <c r="J23" s="0">
-        <v>-0.5</v>
+        <v>-49.840000152587891</v>
       </c>
     </row>
     <row r="24">
@@ -872,25 +872,25 @@
         <v>13</v>
       </c>
       <c r="D24" s="0">
-        <v>221.13999938964844</v>
+        <v>286.58999633789062</v>
       </c>
       <c r="E24" s="0">
-        <v>193.10000610351562</v>
+        <v>252.89999389648438</v>
       </c>
       <c r="F24" s="0">
-        <v>250.80000305175781</v>
+        <v>320.70001220703125</v>
       </c>
       <c r="G24" s="0">
-        <v>116.33999633789062</v>
+        <v>138.63999938964844</v>
       </c>
       <c r="H24" s="0">
-        <v>107.80000305175781</v>
+        <v>123.90000152587891</v>
       </c>
       <c r="I24" s="0">
-        <v>125.69999694824219</v>
+        <v>155.19999694824219</v>
       </c>
       <c r="J24" s="0">
-        <v>-0.4699999988079071</v>
+        <v>-51.619998931884766</v>
       </c>
     </row>
     <row r="25">
@@ -904,25 +904,25 @@
         <v>14</v>
       </c>
       <c r="D25" s="0">
-        <v>286.58999633789062</v>
+        <v>221.13999938964844</v>
       </c>
       <c r="E25" s="0">
-        <v>252.89999389648438</v>
+        <v>193.10000610351562</v>
       </c>
       <c r="F25" s="0">
-        <v>320.70001220703125</v>
+        <v>250.80000305175781</v>
       </c>
       <c r="G25" s="0">
-        <v>138.63999938964844</v>
+        <v>116.33999633789062</v>
       </c>
       <c r="H25" s="0">
-        <v>123.90000152587891</v>
+        <v>107.80000305175781</v>
       </c>
       <c r="I25" s="0">
-        <v>155.19999694824219</v>
+        <v>125.69999694824219</v>
       </c>
       <c r="J25" s="0">
-        <v>-0.51999998092651367</v>
+        <v>-47.389999389648438</v>
       </c>
     </row>
   </sheetData>

--- a/output/Table 1.xlsx
+++ b/output/Table 1.xlsx
@@ -186,7 +186,7 @@
         <v>31173.30078125</v>
       </c>
       <c r="J2" s="0">
-        <v>2.619999885559082</v>
+        <v>2.5999999046325684</v>
       </c>
     </row>
     <row r="3">
@@ -218,7 +218,7 @@
         <v>31578.30078125</v>
       </c>
       <c r="J3" s="0">
-        <v>-1.7899999618530273</v>
+        <v>-1.7999999523162842</v>
       </c>
     </row>
     <row r="4">
@@ -250,7 +250,7 @@
         <v>30872</v>
       </c>
       <c r="J4" s="0">
-        <v>7.5900001525878906</v>
+        <v>7.5999999046325684</v>
       </c>
     </row>
     <row r="5">
@@ -282,7 +282,7 @@
         <v>22813.80078125</v>
       </c>
       <c r="J5" s="0">
-        <v>-18.819999694824219</v>
+        <v>-18.799999237060547</v>
       </c>
     </row>
     <row r="6">
@@ -346,7 +346,7 @@
         <v>22287.19921875</v>
       </c>
       <c r="J7" s="0">
-        <v>-12.590000152587891</v>
+        <v>-12.600000381469727</v>
       </c>
     </row>
     <row r="8">
@@ -378,7 +378,7 @@
         <v>13999.400390625</v>
       </c>
       <c r="J8" s="0">
-        <v>-10.149999618530273</v>
+        <v>-10.100000381469727</v>
       </c>
     </row>
     <row r="9">
@@ -410,7 +410,7 @@
         <v>16099.2998046875</v>
       </c>
       <c r="J9" s="0">
-        <v>-14.909999847412109</v>
+        <v>-14.899999618530273</v>
       </c>
     </row>
     <row r="10">
@@ -442,7 +442,7 @@
         <v>11965.2001953125</v>
       </c>
       <c r="J10" s="0">
-        <v>-2.9600000381469727</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>9171.5</v>
       </c>
       <c r="J11" s="0">
-        <v>-35.659999847412109</v>
+        <v>-35.700000762939453</v>
       </c>
     </row>
     <row r="12">
@@ -506,7 +506,7 @@
         <v>11216.099609375</v>
       </c>
       <c r="J12" s="0">
-        <v>-39.779998779296875</v>
+        <v>-39.799999237060547</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>7277.39990234375</v>
       </c>
       <c r="J13" s="0">
-        <v>-30.569999694824219</v>
+        <v>-30.600000381469727</v>
       </c>
     </row>
     <row r="14">
@@ -570,7 +570,7 @@
         <v>17380.19921875</v>
       </c>
       <c r="J14" s="0">
-        <v>19.920000076293945</v>
+        <v>19.899999618530273</v>
       </c>
     </row>
     <row r="15">
@@ -602,7 +602,7 @@
         <v>15637.599609375</v>
       </c>
       <c r="J15" s="0">
-        <v>22.690000534057617</v>
+        <v>22.700000762939453</v>
       </c>
     </row>
     <row r="16">
@@ -634,7 +634,7 @@
         <v>19091.5</v>
       </c>
       <c r="J16" s="0">
-        <v>17.739999771118164</v>
+        <v>17.700000762939453</v>
       </c>
     </row>
     <row r="17">
@@ -666,7 +666,7 @@
         <v>13795.900390625</v>
       </c>
       <c r="J17" s="0">
-        <v>3.9200000762939453</v>
+        <v>3.9000000953674316</v>
       </c>
     </row>
     <row r="18">
@@ -698,7 +698,7 @@
         <v>12543.2998046875</v>
       </c>
       <c r="J18" s="0">
-        <v>3.8499999046325684</v>
+        <v>3.7999999523162842</v>
       </c>
     </row>
     <row r="19">
@@ -730,7 +730,7 @@
         <v>15179.5</v>
       </c>
       <c r="J19" s="0">
-        <v>3.8499999046325684</v>
+        <v>3.9000000953674316</v>
       </c>
     </row>
     <row r="20">

--- a/output/Table 1.xlsx
+++ b/output/Table 1.xlsx
@@ -744,7 +744,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="0">
-        <v>77.430000305175781</v>
+        <v>77.400001525878906</v>
       </c>
       <c r="E20" s="0">
         <v>77.400001525878906</v>
@@ -753,7 +753,7 @@
         <v>77.5</v>
       </c>
       <c r="G20" s="0">
-        <v>82.180000305175781</v>
+        <v>82.199996948242188</v>
       </c>
       <c r="H20" s="0">
         <v>82</v>
@@ -762,7 +762,7 @@
         <v>82.300003051757812</v>
       </c>
       <c r="J20" s="0">
-        <v>6.130000114440918</v>
+        <v>6.1999998092651367</v>
       </c>
     </row>
     <row r="21">
@@ -785,7 +785,7 @@
         <v>74.300003051757812</v>
       </c>
       <c r="G21" s="0">
-        <v>80.050003051757812</v>
+        <v>80</v>
       </c>
       <c r="H21" s="0">
         <v>79.900001525878906</v>
@@ -794,7 +794,7 @@
         <v>80.199996948242188</v>
       </c>
       <c r="J21" s="0">
-        <v>7.880000114440918</v>
+        <v>7.8000001907348633</v>
       </c>
     </row>
     <row r="22">
@@ -808,7 +808,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="0">
-        <v>80.629997253417969</v>
+        <v>80.599998474121094</v>
       </c>
       <c r="E22" s="0">
         <v>80.599998474121094</v>
@@ -817,7 +817,7 @@
         <v>80.699996948242188</v>
       </c>
       <c r="G22" s="0">
-        <v>84.269996643066406</v>
+        <v>84.300003051757812</v>
       </c>
       <c r="H22" s="0">
         <v>84.099998474121094</v>
@@ -826,7 +826,7 @@
         <v>84.400001525878906</v>
       </c>
       <c r="J22" s="0">
-        <v>4.5100002288818359</v>
+        <v>4.5999999046325684</v>
       </c>
     </row>
     <row r="23">
@@ -840,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="0">
-        <v>254.66999816894531</v>
+        <v>254.69999694824219</v>
       </c>
       <c r="E23" s="0">
         <v>224.80000305175781</v>
@@ -849,7 +849,7 @@
         <v>285.89999389648438</v>
       </c>
       <c r="G23" s="0">
-        <v>127.75</v>
+        <v>127.80000305175781</v>
       </c>
       <c r="H23" s="0">
         <v>116.09999847412109</v>
@@ -858,7 +858,7 @@
         <v>140.80000305175781</v>
       </c>
       <c r="J23" s="0">
-        <v>-49.840000152587891</v>
+        <v>-49.799999237060547</v>
       </c>
     </row>
     <row r="24">
@@ -872,7 +872,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="0">
-        <v>286.58999633789062</v>
+        <v>286.60000610351562</v>
       </c>
       <c r="E24" s="0">
         <v>252.89999389648438</v>
@@ -881,7 +881,7 @@
         <v>320.70001220703125</v>
       </c>
       <c r="G24" s="0">
-        <v>138.63999938964844</v>
+        <v>138.60000610351562</v>
       </c>
       <c r="H24" s="0">
         <v>123.90000152587891</v>
@@ -890,7 +890,7 @@
         <v>155.19999694824219</v>
       </c>
       <c r="J24" s="0">
-        <v>-51.619998931884766</v>
+        <v>-51.599998474121094</v>
       </c>
     </row>
     <row r="25">
@@ -904,7 +904,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="0">
-        <v>221.13999938964844</v>
+        <v>221.10000610351562</v>
       </c>
       <c r="E25" s="0">
         <v>193.10000610351562</v>
@@ -913,7 +913,7 @@
         <v>250.80000305175781</v>
       </c>
       <c r="G25" s="0">
-        <v>116.33999633789062</v>
+        <v>116.30000305175781</v>
       </c>
       <c r="H25" s="0">
         <v>107.80000305175781</v>
@@ -922,7 +922,7 @@
         <v>125.69999694824219</v>
       </c>
       <c r="J25" s="0">
-        <v>-47.389999389648438</v>
+        <v>-47.400001525878906</v>
       </c>
     </row>
   </sheetData>

--- a/output/Table 1.xlsx
+++ b/output/Table 1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="84" uniqueCount="24">
   <si>
     <t>Measure</t>
   </si>
@@ -79,12 +79,18 @@
   </si>
   <si>
     <t>Relative change (%)</t>
+  </si>
+  <si>
+    <t>Relative change (%) Lower UL</t>
+  </si>
+  <si>
+    <t>Relative change (%) Upper UL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -121,8 +127,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -156,6 +165,12 @@
       <c r="J1" t="s">
         <v>21</v>
       </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -167,26 +182,32 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>26638</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>23670.19921875</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>29975.19921875</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>27335.900390625</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>23882.5</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>31173.30078125</v>
       </c>
-      <c r="J2" s="0">
+      <c r="J2">
         <v>2.5999999046325684</v>
+      </c>
+      <c r="K2">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="L2">
+        <v>4.9000000953674317</v>
       </c>
     </row>
     <row r="3">
@@ -199,26 +220,32 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>28559.69921875</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>26025.599609375</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>31454.900390625</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>28048.30078125</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>24952.099609375</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>31578.30078125</v>
       </c>
-      <c r="J3" s="0">
+      <c r="J3">
         <v>-1.7999999523162842</v>
+      </c>
+      <c r="K3">
+        <v>-4.5</v>
+      </c>
+      <c r="L3">
+        <v>0.80000001192092896</v>
       </c>
     </row>
     <row r="4">
@@ -231,26 +258,32 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>24766.400390625</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>21444.400390625</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>28610.400390625</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>26645.900390625</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>22855.80078125</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>30872</v>
       </c>
-      <c r="J4" s="0">
+      <c r="J4">
         <v>7.5999999046325684</v>
+      </c>
+      <c r="K4">
+        <v>5.4000000953674317</v>
+      </c>
+      <c r="L4">
+        <v>9.8000001907348633</v>
       </c>
     </row>
     <row r="5">
@@ -263,26 +296,32 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>24247.5</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>21542.599609375</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>27249.900390625</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>19683.69921875</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>16877.099609375</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>22813.80078125</v>
       </c>
-      <c r="J5" s="0">
+      <c r="J5">
         <v>-18.799999237060547</v>
+      </c>
+      <c r="K5">
+        <v>-21.899999618530273</v>
+      </c>
+      <c r="L5">
+        <v>-16</v>
       </c>
     </row>
     <row r="6">
@@ -295,26 +334,32 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>27614.69921875</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>25218</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>30358.400390625</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>20739.5</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>18213.69921875</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>23559.69921875</v>
       </c>
-      <c r="J6" s="0">
+      <c r="J6">
         <v>-24.899999618530273</v>
+      </c>
+      <c r="K6">
+        <v>-27.899999618530273</v>
+      </c>
+      <c r="L6">
+        <v>-22</v>
       </c>
     </row>
     <row r="7">
@@ -327,26 +372,32 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>21468.900390625</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>18492.69921875</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>24880.19921875</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>18765.30078125</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>15692</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>22287.19921875</v>
       </c>
-      <c r="J7" s="0">
+      <c r="J7">
         <v>-12.600000381469727</v>
+      </c>
+      <c r="K7">
+        <v>-15.5</v>
+      </c>
+      <c r="L7">
+        <v>-10</v>
       </c>
     </row>
     <row r="8">
@@ -359,26 +410,32 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>15328.5</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>15259</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>15405.099609375</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>13773.400390625</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>13562.099609375</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>13999.400390625</v>
       </c>
-      <c r="J8" s="0">
+      <c r="J8">
         <v>-10.100000381469727</v>
+      </c>
+      <c r="K8">
+        <v>-11.600000381469727</v>
+      </c>
+      <c r="L8">
+        <v>-8.6000003814697266</v>
       </c>
     </row>
     <row r="9">
@@ -391,26 +448,32 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>18597.400390625</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>18493.400390625</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>18704.19921875</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G9">
         <v>15825.400390625</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>15570.5</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>16099.2998046875</v>
       </c>
-      <c r="J9" s="0">
+      <c r="J9">
         <v>-14.899999618530273</v>
+      </c>
+      <c r="K9">
+        <v>-16.399999618530273</v>
+      </c>
+      <c r="L9">
+        <v>-13.399999618530273</v>
       </c>
     </row>
     <row r="10">
@@ -423,26 +486,32 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>12144.900390625</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>12071.099609375</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>12222.7998046875</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10">
         <v>11785.7001953125</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>11616.5</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>11965.2001953125</v>
       </c>
-      <c r="J10" s="0">
+      <c r="J10">
         <v>-3</v>
+      </c>
+      <c r="K10">
+        <v>-4.5</v>
+      </c>
+      <c r="L10">
+        <v>-1.3999999761581421</v>
       </c>
     </row>
     <row r="11">
@@ -455,26 +524,32 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>13932</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>13867.400390625</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>14001.400390625</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>8963.599609375</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>8772.7998046875</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>9171.5</v>
       </c>
-      <c r="J11" s="0">
+      <c r="J11">
         <v>-35.700000762939453</v>
+      </c>
+      <c r="K11">
+        <v>-37.099998474121094</v>
+      </c>
+      <c r="L11">
+        <v>-34.200000762939453</v>
       </c>
     </row>
     <row r="12">
@@ -487,26 +562,32 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>18194.19921875</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>18091.69921875</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>18298.5</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12">
         <v>10956.5</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>10719.2998046875</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>11216.099609375</v>
       </c>
-      <c r="J12" s="0">
+      <c r="J12">
         <v>-39.799999237060547</v>
+      </c>
+      <c r="K12">
+        <v>-41.200000762939453</v>
+      </c>
+      <c r="L12">
+        <v>-38.299999237060547</v>
       </c>
     </row>
     <row r="13">
@@ -519,26 +600,32 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>10256.400390625</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>10195.5</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>10320.5</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13">
         <v>7120.7001953125</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>6976.10009765625</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>7277.39990234375</v>
       </c>
-      <c r="J13" s="0">
+      <c r="J13">
         <v>-30.600000381469727</v>
+      </c>
+      <c r="K13">
+        <v>-32.099998474121094</v>
+      </c>
+      <c r="L13">
+        <v>-29</v>
       </c>
     </row>
     <row r="14">
@@ -551,26 +638,32 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>11309.5</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>8360.099609375</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>14702.2998046875</v>
       </c>
-      <c r="G14" s="0">
+      <c r="G14">
         <v>13562.5</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>10140.5</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>17380.19921875</v>
       </c>
-      <c r="J14" s="0">
+      <c r="J14">
         <v>19.899999618530273</v>
+      </c>
+      <c r="K14">
+        <v>17.100000381469727</v>
+      </c>
+      <c r="L14">
+        <v>23.100000381469727</v>
       </c>
     </row>
     <row r="15">
@@ -583,26 +676,32 @@
       <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>9962.2998046875</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>7430</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>12867.2001953125</v>
       </c>
-      <c r="G15" s="0">
+      <c r="G15">
         <v>12222.900390625</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>9140.7001953125</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>15637.599609375</v>
       </c>
-      <c r="J15" s="0">
+      <c r="J15">
         <v>22.700000762939453</v>
+      </c>
+      <c r="K15">
+        <v>19.899999618530273</v>
+      </c>
+      <c r="L15">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -615,26 +714,32 @@
       <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>12621.5</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>9294.5</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>16503.900390625</v>
       </c>
-      <c r="G16" s="0">
+      <c r="G16">
         <v>14860.2001953125</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>11084.7001953125</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>19091.5</v>
       </c>
-      <c r="J16" s="0">
+      <c r="J16">
         <v>17.700000762939453</v>
+      </c>
+      <c r="K16">
+        <v>14.399999618530273</v>
+      </c>
+      <c r="L16">
+        <v>21.100000381469727</v>
       </c>
     </row>
     <row r="17">
@@ -647,26 +752,32 @@
       <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>10315.5</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>7631.39990234375</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>13379.2001953125</v>
       </c>
-      <c r="G17" s="0">
+      <c r="G17">
         <v>10720.099609375</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>7955.2001953125</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>13795.900390625</v>
       </c>
-      <c r="J17" s="0">
-        <v>3.9000000953674316</v>
+      <c r="J17">
+        <v>3.9000000953674317</v>
+      </c>
+      <c r="K17">
+        <v>1.8999999761581421</v>
+      </c>
+      <c r="L17">
+        <v>6.3000001907348633</v>
       </c>
     </row>
     <row r="18">
@@ -679,26 +790,32 @@
       <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>9420.5</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>7025.2998046875</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>12168.400390625</v>
       </c>
-      <c r="G18" s="0">
+      <c r="G18">
         <v>9783</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>7259.7998046875</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>12543.2998046875</v>
       </c>
-      <c r="J18" s="0">
+      <c r="J18">
         <v>3.7999999523162842</v>
+      </c>
+      <c r="K18">
+        <v>1.5</v>
+      </c>
+      <c r="L18">
+        <v>6.5999999046325684</v>
       </c>
     </row>
     <row r="19">
@@ -711,26 +828,32 @@
       <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>11212.599609375</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>8225.7998046875</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>14644.2001953125</v>
       </c>
-      <c r="G19" s="0">
+      <c r="G19">
         <v>11644.5</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>8632.599609375</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>15179.5</v>
       </c>
-      <c r="J19" s="0">
-        <v>3.9000000953674316</v>
+      <c r="J19">
+        <v>3.9000000953674317</v>
+      </c>
+      <c r="K19">
+        <v>1.5</v>
+      </c>
+      <c r="L19">
+        <v>6.4000000953674317</v>
       </c>
     </row>
     <row r="20">
@@ -743,25 +866,31 @@
       <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20">
         <v>77.400001525878906</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>77.400001525878906</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>77.5</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20">
         <v>82.199996948242188</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>82</v>
       </c>
-      <c r="I20" s="0">
-        <v>82.300003051757812</v>
-      </c>
-      <c r="J20" s="0">
+      <c r="I20">
+        <v>82.300003051757813</v>
+      </c>
+      <c r="J20">
+        <v>6.1999998092651367</v>
+      </c>
+      <c r="K20">
+        <v>5.9000000953674317</v>
+      </c>
+      <c r="L20">
         <v>6.1999998092651367</v>
       </c>
     </row>
@@ -775,26 +904,32 @@
       <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>74.199996948242188</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>74.099998474121094</v>
       </c>
-      <c r="F21" s="0">
-        <v>74.300003051757812</v>
-      </c>
-      <c r="G21" s="0">
+      <c r="F21">
+        <v>74.300003051757813</v>
+      </c>
+      <c r="G21">
         <v>80</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>79.900001525878906</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <v>80.199996948242188</v>
       </c>
-      <c r="J21" s="0">
+      <c r="J21">
         <v>7.8000001907348633</v>
+      </c>
+      <c r="K21">
+        <v>7.8000001907348633</v>
+      </c>
+      <c r="L21">
+        <v>7.9000000953674317</v>
       </c>
     </row>
     <row r="22">
@@ -807,25 +942,31 @@
       <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>80.599998474121094</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>80.599998474121094</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>80.699996948242188</v>
       </c>
-      <c r="G22" s="0">
-        <v>84.300003051757812</v>
-      </c>
-      <c r="H22" s="0">
+      <c r="G22">
+        <v>84.300003051757813</v>
+      </c>
+      <c r="H22">
         <v>84.099998474121094</v>
       </c>
-      <c r="I22" s="0">
+      <c r="I22">
         <v>84.400001525878906</v>
       </c>
-      <c r="J22" s="0">
+      <c r="J22">
+        <v>4.5999999046325684</v>
+      </c>
+      <c r="K22">
+        <v>4.3000001907348633</v>
+      </c>
+      <c r="L22">
         <v>4.5999999046325684</v>
       </c>
     </row>
@@ -839,26 +980,32 @@
       <c r="C23" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>254.69999694824219</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>224.80000305175781</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>285.89999389648438</v>
       </c>
-      <c r="G23" s="0">
+      <c r="G23">
         <v>127.80000305175781</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <v>116.09999847412109</v>
       </c>
-      <c r="I23" s="0">
+      <c r="I23">
         <v>140.80000305175781</v>
       </c>
-      <c r="J23" s="0">
+      <c r="J23">
         <v>-49.799999237060547</v>
+      </c>
+      <c r="K23">
+        <v>-56.799999237060547</v>
+      </c>
+      <c r="L23">
+        <v>-41.200000762939453</v>
       </c>
     </row>
     <row r="24">
@@ -871,26 +1018,32 @@
       <c r="C24" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="0">
-        <v>286.60000610351562</v>
-      </c>
-      <c r="E24" s="0">
+      <c r="D24">
+        <v>286.60000610351563</v>
+      </c>
+      <c r="E24">
         <v>252.89999389648438</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>320.70001220703125</v>
       </c>
-      <c r="G24" s="0">
-        <v>138.60000610351562</v>
-      </c>
-      <c r="H24" s="0">
+      <c r="G24">
+        <v>138.60000610351563</v>
+      </c>
+      <c r="H24">
         <v>123.90000152587891</v>
       </c>
-      <c r="I24" s="0">
+      <c r="I24">
         <v>155.19999694824219</v>
       </c>
-      <c r="J24" s="0">
+      <c r="J24">
         <v>-51.599998474121094</v>
+      </c>
+      <c r="K24">
+        <v>-58.599998474121094</v>
+      </c>
+      <c r="L24">
+        <v>-43.099998474121094</v>
       </c>
     </row>
     <row r="25">
@@ -903,26 +1056,32 @@
       <c r="C25" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="0">
-        <v>221.10000610351562</v>
-      </c>
-      <c r="E25" s="0">
-        <v>193.10000610351562</v>
-      </c>
-      <c r="F25" s="0">
+      <c r="D25">
+        <v>221.10000610351563</v>
+      </c>
+      <c r="E25">
+        <v>193.10000610351563</v>
+      </c>
+      <c r="F25">
         <v>250.80000305175781</v>
       </c>
-      <c r="G25" s="0">
+      <c r="G25">
         <v>116.30000305175781</v>
       </c>
-      <c r="H25" s="0">
+      <c r="H25">
         <v>107.80000305175781</v>
       </c>
-      <c r="I25" s="0">
+      <c r="I25">
         <v>125.69999694824219</v>
       </c>
-      <c r="J25" s="0">
+      <c r="J25">
         <v>-47.400001525878906</v>
+      </c>
+      <c r="K25">
+        <v>-54.400001525878906</v>
+      </c>
+      <c r="L25">
+        <v>-38.599998474121094</v>
       </c>
     </row>
   </sheetData>
